--- a/auto/new_data/9_2_Ferrous_LME-Steel-Scrap-CFR-Turkey-Platts.xlsx
+++ b/auto/new_data/9_2_Ferrous_LME-Steel-Scrap-CFR-Turkey-Platts.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4935</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1900</t>
+          <t>735</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5662</t>
+          <t>4521</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>1418</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4814</t>
+          <t>5237</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>734</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2203</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -566,17 +566,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2087</t>
+          <t>2276</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -591,17 +591,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>454</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t>2969</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>409</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1057</t>
+          <t>1463</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>1094</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -666,17 +666,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>487</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>367</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -741,17 +741,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>372</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -766,17 +766,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>268</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>140</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/9_2_Ferrous_LME-Steel-Scrap-CFR-Turkey-Platts.xlsx
+++ b/auto/new_data/9_2_Ferrous_LME-Steel-Scrap-CFR-Turkey-Platts.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4609</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>1538</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4521</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1418</t>
+          <t>2996</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5237</t>
+          <t>6562</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>477</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -566,17 +566,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>421</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2276</t>
+          <t>2387</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -591,17 +591,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>350</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2969</t>
+          <t>3323</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1463</t>
+          <t>1462</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1094</t>
+          <t>1095</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -671,12 +671,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>510</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>427</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>418</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -741,17 +741,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>373</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -766,17 +766,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>275</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>144</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/9_2_Ferrous_LME-Steel-Scrap-CFR-Turkey-Platts.xlsx
+++ b/auto/new_data/9_2_Ferrous_LME-Steel-Scrap-CFR-Turkey-Platts.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nov 24</t>
+          <t>Dec 24</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -471,12 +471,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4599</t>
+          <t>2552</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -486,22 +486,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dec 24</t>
+          <t>Jan 25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1538</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4293</t>
+          <t>7228</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Feb 25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2996</t>
+          <t>1002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6562</t>
+          <t>5492</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Feb 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4357</t>
+          <t>2617</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mar 25</t>
+          <t>Apr 25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2387</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Apr 25</t>
+          <t>May 25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3323</t>
+          <t>2756</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>May 25</t>
+          <t>Jun 25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1462</t>
+          <t>1104</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jun 25</t>
+          <t>Jul 25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>797</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jul 25</t>
+          <t>Aug 25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>485</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aug 25</t>
+          <t>Sep 25</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>466</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sep 25</t>
+          <t>Oct 25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>379</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -736,22 +736,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Oct 25</t>
+          <t>Nov 25</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>271</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nov 25</t>
+          <t>Dec 25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>140</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -786,22 +786,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dec 25</t>
+          <t>Jan 26</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jan 26</t>
+          <t>Feb 26</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
